--- a/normativa/Anexos/L05T02C03/L05T02C03A04.6.xlsx
+++ b/normativa/Anexos/L05T02C03/L05T02C03A04.6.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="HOJA 1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'HOJA 1'!$A$1:$Q$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'HOJA 1'!$A$1:$Q$45</definedName>
   </definedNames>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t>Contador General</t>
   </si>
@@ -95,18 +95,6 @@
     <t xml:space="preserve">   1. Gobierno central</t>
   </si>
   <si>
-    <t xml:space="preserve">   2. Prefecturas (ex-Corporaciones de Desarrollo)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   3. Alcaldías</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   4. Servicios Autónomos Municipales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   5. Otros (especificar)</t>
-  </si>
-  <si>
     <t xml:space="preserve">   1. Por Departamentos </t>
   </si>
   <si>
@@ -165,9 +153,6 @@
   </si>
   <si>
     <t>B. SEGÚN DESTINO DEL CRÉDITO</t>
-  </si>
-  <si>
-    <t>1. El total de importe de cartera, debe coincidir con la sumatoria de las cuentas contables 131.00,133.00,134.00,135.00,136.00 y 137.00</t>
   </si>
   <si>
     <r>
@@ -193,6 +178,28 @@
   </si>
   <si>
     <t>LIBRO 5°, TÍTULO II, CAPÍTULO III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2. Gobiernos Autónomos Departamentales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3. Gobiernos Autónomos Municipales</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Otros (especificar)</t>
+    </r>
+  </si>
+  <si>
+    <t>1. El total de importe de cartera, debe coincidir con la sumatoria de las cuentas contables 131.33,133.33,134.33,135.40,136.40 y 137.40</t>
   </si>
 </sst>
 </file>
@@ -435,7 +442,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="39" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -491,6 +498,10 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="39" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -514,12 +525,69 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9305925" y="1123950"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-BO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -561,7 +629,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -596,7 +664,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -805,13 +873,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF45"/>
+  <dimension ref="A1:AF44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="1" customWidth="1"/>
@@ -864,25 +932,25 @@
       <c r="AB1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
+      <c r="A2" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
@@ -1061,7 +1129,7 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
     </row>
-    <row r="8" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1124,8 +1192,8 @@
       <c r="AB9" s="2"/>
     </row>
     <row r="10" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>43</v>
+      <c r="A10" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>12</v>
@@ -1170,45 +1238,45 @@
       <c r="AB10" s="2"/>
     </row>
     <row r="11" spans="1:32" ht="27" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="28" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C11" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E11" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I11" s="28" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K11" s="28" t="s">
         <v>19</v>
       </c>
       <c r="L11" s="28" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M11" s="28" t="s">
         <v>19</v>
       </c>
       <c r="N11" s="28" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="O11" s="28" t="s">
         <v>20</v>
@@ -1233,7 +1301,7 @@
     </row>
     <row r="12" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -1296,8 +1364,8 @@
       <c r="AB13" s="2"/>
     </row>
     <row r="14" spans="1:32" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>22</v>
+      <c r="A14" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -1329,7 +1397,7 @@
     </row>
     <row r="15" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -1361,7 +1429,7 @@
     </row>
     <row r="16" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -1392,25 +1460,25 @@
       <c r="AB16" s="2"/>
     </row>
     <row r="17" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c r="A17" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
@@ -1424,25 +1492,25 @@
       <c r="AB17" s="2"/>
     </row>
     <row r="18" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
+      <c r="A18" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
@@ -1457,7 +1525,7 @@
     </row>
     <row r="19" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -1489,7 +1557,7 @@
     </row>
     <row r="20" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -1521,7 +1589,7 @@
     </row>
     <row r="21" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -1553,7 +1621,7 @@
     </row>
     <row r="22" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -1585,7 +1653,7 @@
     </row>
     <row r="23" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -1617,7 +1685,7 @@
     </row>
     <row r="24" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -1649,7 +1717,7 @@
     </row>
     <row r="25" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -1681,7 +1749,7 @@
     </row>
     <row r="26" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -1713,7 +1781,7 @@
     </row>
     <row r="27" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -1745,7 +1813,7 @@
     </row>
     <row r="28" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -1777,7 +1845,7 @@
     </row>
     <row r="29" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -1809,7 +1877,7 @@
     </row>
     <row r="30" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -1841,7 +1909,7 @@
     </row>
     <row r="31" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -1873,7 +1941,7 @@
     </row>
     <row r="32" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -1905,7 +1973,7 @@
     </row>
     <row r="33" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -1937,7 +2005,7 @@
     </row>
     <row r="34" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -1968,9 +2036,7 @@
       <c r="AB34" s="2"/>
     </row>
     <row r="35" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
-        <v>47</v>
-      </c>
+      <c r="A35" s="16"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
@@ -1987,61 +2053,52 @@
       <c r="O35" s="17"/>
       <c r="P35" s="17"/>
       <c r="Q35" s="17"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="2"/>
-      <c r="AA35" s="2"/>
-      <c r="AB35" s="2"/>
     </row>
     <row r="36" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c r="A36" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="19"/>
     </row>
     <row r="37" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="19"/>
+      <c r="A37" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
     </row>
     <row r="38" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
@@ -2061,70 +2118,61 @@
       <c r="Q38" s="15"/>
     </row>
     <row r="39" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-    </row>
-    <row r="40" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+    </row>
+    <row r="41" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
     </row>
     <row r="42" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
+      <c r="G42" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="M42" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
     </row>
     <row r="43" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
-      <c r="G43" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="M43" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
+      <c r="A44" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -2133,23 +2181,11 @@
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="M42:O42"/>
     <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G42:I42"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2157,12 +2193,13 @@
   <pageSetup scale="75" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Negrita"&amp;8&amp;U
-RECOPILACIÓN DE NORMAS PARA BANCOS Y ENTIDADES FINANCIERAS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
+RECOPILACIÓN DE NORMAS PARA SERVICIOS FINANCIEROS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
     <oddFooter>&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 5°
 Título II
 Capítulo III
 Anexo 4.6
 Página &amp;P/1</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>